--- a/tables/metrics_non_kin_network_villages_prediction_stable_ties.xlsx
+++ b/tables/metrics_non_kin_network_villages_prediction_stable_ties.xlsx
@@ -431,40 +431,40 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.4962121212121212</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C2">
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F2">
+        <v>47</v>
+      </c>
+      <c r="G2">
         <v>41</v>
       </c>
-      <c r="G2">
-        <v>42</v>
-      </c>
       <c r="H2">
-        <v>0.6818181818181818</v>
+        <v>0.6746031746031746</v>
       </c>
       <c r="I2">
-        <v>0.3181818181818182</v>
+        <v>0.3253968253968254</v>
       </c>
       <c r="J2">
-        <v>0.6893939393939394</v>
+        <v>0.626984126984127</v>
       </c>
       <c r="K2">
-        <v>0.6870229007633588</v>
+        <v>0.6439393939393939</v>
       </c>
       <c r="L2">
-        <v>0.6856060606060606</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="M2">
-        <v>0.6844106463878327</v>
+        <v>0.6589147286821705</v>
       </c>
     </row>
     <row r="3">
@@ -474,40 +474,40 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4444444444444444</v>
+        <v>0.4776119402985075</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>0.6790123456790124</v>
+        <v>0.7164179104477612</v>
       </c>
       <c r="I3">
-        <v>0.3209876543209876</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="J3">
-        <v>0.7901234567901234</v>
+        <v>0.7611940298507462</v>
       </c>
       <c r="K3">
-        <v>0.7638888888888888</v>
+        <v>0.75</v>
       </c>
       <c r="L3">
-        <v>0.7345679012345679</v>
+        <v>0.7388059701492538</v>
       </c>
       <c r="M3">
-        <v>0.7189542483660131</v>
+        <v>0.732824427480916</v>
       </c>
     </row>
     <row r="4">
@@ -517,40 +517,40 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5609756097560976</v>
+        <v>0.5895522388059702</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E4">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H4">
-        <v>0.7439024390243902</v>
+        <v>0.7761194029850746</v>
       </c>
       <c r="I4">
-        <v>0.2560975609756098</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="J4">
-        <v>0.6219512195121951</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="K4">
-        <v>0.6630434782608695</v>
+        <v>0.6582278481012658</v>
       </c>
       <c r="L4">
-        <v>0.6829268292682927</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="M4">
-        <v>0.7011494252873564</v>
+        <v>0.7123287671232876</v>
       </c>
     </row>
     <row r="5">
@@ -560,40 +560,40 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.465587044534413</v>
+        <v>0.4540816326530612</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
       <c r="D5">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="E5">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="F5">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="H5">
-        <v>0.6558704453441295</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="I5">
-        <v>0.3441295546558704</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="J5">
-        <v>0.7246963562753036</v>
+        <v>0.7653061224489796</v>
       </c>
       <c r="K5">
-        <v>0.7043478260869566</v>
+        <v>0.7415730337078652</v>
       </c>
       <c r="L5">
-        <v>0.6902834008097166</v>
+        <v>0.7193877551020408</v>
       </c>
       <c r="M5">
-        <v>0.6792452830188679</v>
+        <v>0.7058823529411765</v>
       </c>
     </row>
     <row r="6">
@@ -603,40 +603,40 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.3620689655172414</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C6">
         <v>0.5</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>0.5517241379310345</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="I6">
-        <v>0.4482758620689655</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="J6">
-        <v>0.8275862068965517</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K6">
-        <v>0.7619047619047619</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
-        <v>0.6896551724137931</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="M6">
-        <v>0.64</v>
+        <v>0.6857142857142857</v>
       </c>
     </row>
     <row r="7">
@@ -646,40 +646,40 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.3</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C7">
         <v>0.5</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I7">
-        <v>0.5</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="J7">
-        <v>0.9</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.625</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="8">
@@ -689,40 +689,40 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.5280373831775701</v>
+        <v>0.5060975609756098</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
       <c r="D8">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E8">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H8">
-        <v>0.719626168224299</v>
+        <v>0.6707317073170732</v>
       </c>
       <c r="I8">
-        <v>0.2803738317757009</v>
+        <v>0.3292682926829268</v>
       </c>
       <c r="J8">
-        <v>0.6635514018691588</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="K8">
-        <v>0.6814159292035398</v>
+        <v>0.6626506024096386</v>
       </c>
       <c r="L8">
-        <v>0.6915887850467289</v>
+        <v>0.6646341463414634</v>
       </c>
       <c r="M8">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="9">
@@ -732,40 +732,40 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.4454545454545454</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="C9">
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H9">
-        <v>0.6545454545454545</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="I9">
-        <v>0.3454545454545455</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="J9">
-        <v>0.7636363636363637</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="K9">
-        <v>0.7346938775510204</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="L9">
-        <v>0.7090909090909091</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="M9">
-        <v>0.6923076923076923</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="10">
@@ -775,40 +775,40 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.4736842105263158</v>
+        <v>0.4971264367816092</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E10">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="F10">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H10">
-        <v>0.7129186602870813</v>
+        <v>0.735632183908046</v>
       </c>
       <c r="I10">
-        <v>0.2870813397129187</v>
+        <v>0.264367816091954</v>
       </c>
       <c r="J10">
-        <v>0.7655502392344498</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="K10">
-        <v>0.7525252525252525</v>
+        <v>0.7398843930635838</v>
       </c>
       <c r="L10">
-        <v>0.7392344497607656</v>
+        <v>0.7385057471264368</v>
       </c>
       <c r="M10">
-        <v>0.7321867321867321</v>
+        <v>0.7377521613832853</v>
       </c>
     </row>
     <row r="11">
@@ -818,40 +818,40 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.5416666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C11">
         <v>0.5</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>13</v>
       </c>
       <c r="H11">
-        <v>0.7291666666666666</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="I11">
-        <v>0.2708333333333333</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="J11">
-        <v>0.6458333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="K11">
-        <v>0.6730769230769231</v>
+        <v>0.64</v>
       </c>
       <c r="L11">
-        <v>0.6875</v>
+        <v>0.6555555555555556</v>
       </c>
       <c r="M11">
-        <v>0.7</v>
+        <v>0.6736842105263158</v>
       </c>
     </row>
     <row r="12">
@@ -861,40 +861,40 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.6194029850746269</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C12">
         <v>0.5</v>
       </c>
       <c r="D12">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H12">
-        <v>0.835820895522388</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="I12">
-        <v>0.1641791044776119</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="J12">
-        <v>0.5970149253731343</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="K12">
-        <v>0.6746987951807228</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="L12">
-        <v>0.7164179104477612</v>
+        <v>0.6020408163265306</v>
       </c>
       <c r="M12">
-        <v>0.7466666666666667</v>
+        <v>0.6285714285714286</v>
       </c>
     </row>
     <row r="13">
@@ -904,40 +904,40 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.51</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C13">
         <v>0.5</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13">
-        <v>0.7</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="I13">
-        <v>0.3</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="J13">
-        <v>0.68</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K13">
-        <v>0.6862745098039216</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="L13">
-        <v>0.6899999999999999</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="M13">
-        <v>0.693069306930693</v>
+        <v>0.6493506493506493</v>
       </c>
     </row>
     <row r="14">
@@ -947,40 +947,40 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="C14">
         <v>0.5</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>0.8666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="I14">
-        <v>0.1333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="J14">
-        <v>0.7666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="K14">
-        <v>0.7878787878787878</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L14">
-        <v>0.8166666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="M14">
-        <v>0.8253968253968254</v>
+        <v>0.6976744186046512</v>
       </c>
     </row>
     <row r="15">
@@ -990,40 +990,40 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.446969696969697</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C15">
         <v>0.5</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E15">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H15">
-        <v>0.6818181818181818</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="I15">
-        <v>0.3181818181818182</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="J15">
-        <v>0.7878787878787878</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="K15">
-        <v>0.7627118644067796</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>0.7348484848484849</v>
+        <v>0.7444444444444445</v>
       </c>
       <c r="M15">
-        <v>0.72</v>
+        <v>0.7415730337078652</v>
       </c>
     </row>
     <row r="16">
@@ -1033,40 +1033,40 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.4887640449438202</v>
+        <v>0.4741379310344828</v>
       </c>
       <c r="C16">
         <v>0.5</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G16">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H16">
-        <v>0.6741573033707865</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="I16">
-        <v>0.3258426966292135</v>
+        <v>0.3620689655172414</v>
       </c>
       <c r="J16">
-        <v>0.6966292134831461</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="K16">
-        <v>0.6896551724137931</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="L16">
-        <v>0.6853932584269663</v>
+        <v>0.6637931034482759</v>
       </c>
       <c r="M16">
-        <v>0.6818181818181818</v>
+        <v>0.6548672566371682</v>
       </c>
     </row>
     <row r="17">
@@ -1076,40 +1076,40 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.4873417721518987</v>
+        <v>0.4708333333333333</v>
       </c>
       <c r="C17">
         <v>0.5</v>
       </c>
       <c r="D17">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E17">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G17">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>0.6582278481012658</v>
+        <v>0.675</v>
       </c>
       <c r="I17">
-        <v>0.3417721518987342</v>
+        <v>0.325</v>
       </c>
       <c r="J17">
-        <v>0.6835443037974683</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="K17">
-        <v>0.6753246753246753</v>
+        <v>0.7168141592920354</v>
       </c>
       <c r="L17">
-        <v>0.6708860759493671</v>
+        <v>0.7041666666666667</v>
       </c>
       <c r="M17">
-        <v>0.6666666666666666</v>
+        <v>0.6952789699570815</v>
       </c>
     </row>
     <row r="18">
@@ -1119,40 +1119,40 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.44</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="C18">
         <v>0.5</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H18">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="I18">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="J18">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="K18">
         <v>0.6</v>
       </c>
-      <c r="I18">
-        <v>0.4</v>
-      </c>
-      <c r="J18">
-        <v>0.72</v>
-      </c>
-      <c r="K18">
-        <v>0.6818181818181818</v>
-      </c>
       <c r="L18">
-        <v>0.66</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="M18">
-        <v>0.6382978723404256</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="19">
@@ -1162,40 +1162,40 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.6590909090909091</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="C19">
         <v>0.5</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G19">
         <v>7</v>
       </c>
       <c r="H19">
-        <v>0.8409090909090909</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="I19">
-        <v>0.1590909090909091</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="J19">
-        <v>0.5227272727272727</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="K19">
-        <v>0.6379310344827587</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L19">
-        <v>0.6818181818181818</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="M19">
-        <v>0.7254901960784313</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
   </sheetData>
